--- a/output/Peru_formatted.xlsx
+++ b/output/Peru_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential_duplication</t>
   </si>
   <si>
     <t xml:space="preserve">PER</t>
@@ -851,22 +854,25 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -876,10 +882,10 @@
         <v>43103</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -923,22 +929,25 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -948,10 +957,10 @@
         <v>42832</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -995,22 +1004,25 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1020,10 +1032,10 @@
         <v>42832</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
         <v>0.2</v>
@@ -1071,22 +1083,25 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1096,10 +1111,10 @@
         <v>42832</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -1143,22 +1158,25 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1168,10 +1186,10 @@
         <v>42832</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -1215,22 +1233,25 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1240,10 +1261,10 @@
         <v>42832</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1287,22 +1308,25 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1312,10 +1336,10 @@
         <v>42832</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1359,22 +1383,25 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
+      <c r="AC8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1384,10 +1411,10 @@
         <v>42832</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1431,22 +1458,25 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
+      <c r="AC9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1456,10 +1486,10 @@
         <v>42832</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -1503,22 +1533,25 @@
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10"/>
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -1528,10 +1561,10 @@
         <v>42823</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
         <v>0.2625</v>
@@ -1579,22 +1612,25 @@
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -1604,10 +1640,10 @@
         <v>42832</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" t="n">
         <v>0.05</v>
@@ -1655,22 +1691,25 @@
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -1680,10 +1719,10 @@
         <v>42892</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
         <v>0.18</v>
@@ -1731,22 +1770,25 @@
       <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13"/>
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -1756,10 +1798,10 @@
         <v>42962</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -1803,22 +1845,25 @@
       <c r="Z14"/>
       <c r="AA14"/>
       <c r="AB14"/>
+      <c r="AC14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -1828,10 +1873,10 @@
         <v>42961</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -1875,22 +1920,25 @@
       <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15"/>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -1900,10 +1948,10 @@
         <v>42832</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -1947,22 +1995,25 @@
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -1972,10 +2023,10 @@
         <v>42892</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2019,22 +2070,25 @@
       <c r="Z17"/>
       <c r="AA17"/>
       <c r="AB17"/>
+      <c r="AC17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2044,10 +2098,10 @@
         <v>42843</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -2091,22 +2145,25 @@
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18"/>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -2116,10 +2173,10 @@
         <v>42828</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" t="n">
         <v>0.1</v>
@@ -2167,22 +2224,25 @@
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -2192,10 +2252,10 @@
         <v>42832</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2239,22 +2299,25 @@
       <c r="Z20"/>
       <c r="AA20"/>
       <c r="AB20"/>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -2264,10 +2327,10 @@
         <v>42843</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -2311,22 +2374,25 @@
       <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21"/>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -2336,10 +2402,10 @@
         <v>43335</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" t="n">
         <v>0.8</v>
@@ -2387,22 +2453,25 @@
       <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22"/>
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -2412,10 +2481,10 @@
         <v>42866</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K23" t="n">
         <v>0.22</v>
@@ -2463,22 +2532,25 @@
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -2488,10 +2560,10 @@
         <v>43011</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" t="n">
         <v>11.019</v>
@@ -2539,22 +2611,25 @@
       <c r="Z24"/>
       <c r="AA24"/>
       <c r="AB24"/>
+      <c r="AC24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -2564,10 +2639,10 @@
         <v>43038</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
         <v>0.25</v>
@@ -2615,22 +2690,25 @@
       <c r="Z25"/>
       <c r="AA25"/>
       <c r="AB25"/>
+      <c r="AC25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -2640,10 +2718,10 @@
         <v>42852</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26" t="n">
         <v>2.5</v>
@@ -2691,22 +2769,25 @@
       <c r="Z26"/>
       <c r="AA26"/>
       <c r="AB26"/>
+      <c r="AC26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -2716,10 +2797,10 @@
         <v>42852</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -2763,22 +2844,25 @@
       <c r="Z27"/>
       <c r="AA27"/>
       <c r="AB27"/>
+      <c r="AC27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -2788,10 +2872,10 @@
         <v>42852</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -2835,22 +2919,25 @@
       <c r="Z28"/>
       <c r="AA28"/>
       <c r="AB28"/>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -2860,10 +2947,10 @@
         <v>42850</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
@@ -2911,22 +2998,25 @@
       <c r="Z29"/>
       <c r="AA29"/>
       <c r="AB29"/>
+      <c r="AC29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -2936,10 +3026,10 @@
         <v>42850</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30" t="n">
         <v>3.6</v>
@@ -2987,22 +3077,25 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
+      <c r="AC30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -3012,10 +3105,10 @@
         <v>43060</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
@@ -3059,22 +3152,25 @@
       <c r="Z31"/>
       <c r="AA31"/>
       <c r="AB31"/>
+      <c r="AC31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -3084,10 +3180,10 @@
         <v>42857</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
@@ -3131,22 +3227,25 @@
       <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32"/>
+      <c r="AC32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -3156,10 +3255,10 @@
         <v>43136</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -3203,22 +3302,25 @@
       <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
+      <c r="AC33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -3228,10 +3330,10 @@
         <v>42895</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
@@ -3275,22 +3377,25 @@
       <c r="Z34"/>
       <c r="AA34"/>
       <c r="AB34"/>
+      <c r="AC34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -3300,10 +3405,10 @@
         <v>42895</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
@@ -3347,22 +3452,25 @@
       <c r="Z35"/>
       <c r="AA35"/>
       <c r="AB35"/>
+      <c r="AC35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -3372,10 +3480,10 @@
         <v>42927</v>
       </c>
       <c r="I36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
@@ -3419,22 +3527,25 @@
       <c r="Z36"/>
       <c r="AA36"/>
       <c r="AB36"/>
+      <c r="AC36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -3444,10 +3555,10 @@
         <v>42895</v>
       </c>
       <c r="I37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -3491,22 +3602,25 @@
       <c r="Z37"/>
       <c r="AA37"/>
       <c r="AB37"/>
+      <c r="AC37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -3516,10 +3630,10 @@
         <v>42860</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
@@ -3563,22 +3677,25 @@
       <c r="Z38"/>
       <c r="AA38"/>
       <c r="AB38"/>
+      <c r="AC38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -3588,10 +3705,10 @@
         <v>42860</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
@@ -3635,22 +3752,25 @@
       <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39"/>
+      <c r="AC39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -3660,10 +3780,10 @@
         <v>42860</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -3707,22 +3827,25 @@
       <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
+      <c r="AC40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -3732,10 +3855,10 @@
         <v>42860</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -3779,22 +3902,25 @@
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
+      <c r="AC41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -3804,10 +3930,10 @@
         <v>42877</v>
       </c>
       <c r="I42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
@@ -3851,22 +3977,25 @@
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
+      <c r="AC42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -3876,10 +4005,10 @@
         <v>42877</v>
       </c>
       <c r="I43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
@@ -3923,22 +4052,25 @@
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
+      <c r="AC43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -3948,10 +4080,10 @@
         <v>43060</v>
       </c>
       <c r="I44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -3995,22 +4127,25 @@
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
+      <c r="AC44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -4020,10 +4155,10 @@
         <v>42895</v>
       </c>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -4067,22 +4202,25 @@
       <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
+      <c r="AC45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -4092,10 +4230,10 @@
         <v>42895</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -4139,22 +4277,25 @@
       <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
+      <c r="AC46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -4164,10 +4305,10 @@
         <v>42892</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K47"/>
       <c r="L47"/>
@@ -4211,22 +4352,25 @@
       <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
+      <c r="AC47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -4236,10 +4380,10 @@
         <v>42877</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
@@ -4283,22 +4427,25 @@
       <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
+      <c r="AC48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -4308,10 +4455,10 @@
         <v>43193</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -4355,22 +4502,25 @@
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
+      <c r="AC49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -4380,10 +4530,10 @@
         <v>43193</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K50"/>
       <c r="L50"/>
@@ -4427,22 +4577,25 @@
       <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
+      <c r="AC50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -4452,10 +4605,10 @@
         <v>42877</v>
       </c>
       <c r="I51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K51" t="n">
         <v>0.225</v>
@@ -4503,22 +4656,25 @@
       <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
+      <c r="AC51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -4528,10 +4684,10 @@
         <v>42877</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K52" t="n">
         <v>0.3</v>
@@ -4579,22 +4735,25 @@
       <c r="Z52"/>
       <c r="AA52"/>
       <c r="AB52"/>
+      <c r="AC52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -4604,10 +4763,10 @@
         <v>43060</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K53" t="n">
         <v>0.15</v>
@@ -4655,22 +4814,25 @@
       <c r="Z53"/>
       <c r="AA53"/>
       <c r="AB53"/>
+      <c r="AC53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -4680,10 +4842,10 @@
         <v>43126</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K54" t="n">
         <v>0.4</v>
@@ -4731,22 +4893,25 @@
       <c r="Z54"/>
       <c r="AA54"/>
       <c r="AB54"/>
+      <c r="AC54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -4756,10 +4921,10 @@
         <v>43063</v>
       </c>
       <c r="I55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K55"/>
       <c r="L55"/>
@@ -4803,22 +4968,25 @@
       <c r="Z55"/>
       <c r="AA55"/>
       <c r="AB55"/>
+      <c r="AC55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -4828,10 +4996,10 @@
         <v>43063</v>
       </c>
       <c r="I56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
@@ -4875,22 +5043,25 @@
       <c r="Z56"/>
       <c r="AA56"/>
       <c r="AB56"/>
+      <c r="AC56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -4900,10 +5071,10 @@
         <v>43097</v>
       </c>
       <c r="I57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K57" t="n">
         <v>0.4</v>
@@ -4951,22 +5122,25 @@
       <c r="Z57"/>
       <c r="AA57"/>
       <c r="AB57"/>
+      <c r="AC57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -4976,10 +5150,10 @@
         <v>43097</v>
       </c>
       <c r="I58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K58" t="n">
         <v>0.35</v>
@@ -5027,22 +5201,25 @@
       <c r="Z58"/>
       <c r="AA58"/>
       <c r="AB58"/>
+      <c r="AC58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -5052,10 +5229,10 @@
         <v>43063</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
@@ -5099,22 +5276,25 @@
       <c r="Z59"/>
       <c r="AA59"/>
       <c r="AB59"/>
+      <c r="AC59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -5124,10 +5304,10 @@
         <v>43063</v>
       </c>
       <c r="I60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K60"/>
       <c r="L60"/>
@@ -5171,22 +5351,25 @@
       <c r="Z60"/>
       <c r="AA60"/>
       <c r="AB60"/>
+      <c r="AC60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -5196,10 +5379,10 @@
         <v>42984</v>
       </c>
       <c r="I61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K61" t="n">
         <v>0.3</v>
@@ -5247,22 +5430,25 @@
       <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61"/>
+      <c r="AC61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -5272,10 +5458,10 @@
         <v>43063</v>
       </c>
       <c r="I62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K62"/>
       <c r="L62"/>
@@ -5319,22 +5505,25 @@
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62"/>
+      <c r="AC62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -5344,10 +5533,10 @@
         <v>43063</v>
       </c>
       <c r="I63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
@@ -5391,22 +5580,25 @@
       <c r="Z63"/>
       <c r="AA63"/>
       <c r="AB63"/>
+      <c r="AC63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -5416,10 +5608,10 @@
         <v>43117</v>
       </c>
       <c r="I64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K64" t="n">
         <v>0.15</v>
@@ -5467,22 +5659,25 @@
       <c r="Z64"/>
       <c r="AA64"/>
       <c r="AB64"/>
+      <c r="AC64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -5492,10 +5687,10 @@
         <v>43117</v>
       </c>
       <c r="I65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K65" t="n">
         <v>0.12</v>
@@ -5543,6 +5738,9 @@
       <c r="Z65"/>
       <c r="AA65"/>
       <c r="AB65"/>
+      <c r="AC65" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/Peru_formatted.xlsx
+++ b/output/Peru_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">potential_duplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow ID</t>
   </si>
   <si>
     <t xml:space="preserve">PER</t>
@@ -857,22 +860,25 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -882,10 +888,10 @@
         <v>43103</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -932,22 +938,25 @@
       <c r="AC2" t="b">
         <v>0</v>
       </c>
+      <c r="AD2" t="n">
+        <v>168805</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -957,10 +966,10 @@
         <v>42832</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1007,22 +1016,25 @@
       <c r="AC3" t="b">
         <v>0</v>
       </c>
+      <c r="AD3" t="n">
+        <v>155903</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1032,10 +1044,10 @@
         <v>42832</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="n">
         <v>0.2</v>
@@ -1086,22 +1098,25 @@
       <c r="AC4" t="b">
         <v>0</v>
       </c>
+      <c r="AD4" t="n">
+        <v>155905</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1111,10 +1126,10 @@
         <v>42832</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -1161,22 +1176,25 @@
       <c r="AC5" t="b">
         <v>0</v>
       </c>
+      <c r="AD5" t="n">
+        <v>155904</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1186,10 +1204,10 @@
         <v>42832</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -1236,22 +1254,25 @@
       <c r="AC6" t="b">
         <v>0</v>
       </c>
+      <c r="AD6" t="n">
+        <v>155897</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1261,10 +1282,10 @@
         <v>42832</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1311,22 +1332,25 @@
       <c r="AC7" t="b">
         <v>0</v>
       </c>
+      <c r="AD7" t="n">
+        <v>155898</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1336,10 +1360,10 @@
         <v>42832</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1386,22 +1410,25 @@
       <c r="AC8" t="b">
         <v>0</v>
       </c>
+      <c r="AD8" t="n">
+        <v>155899</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1411,10 +1438,10 @@
         <v>42832</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1461,22 +1488,25 @@
       <c r="AC9" t="b">
         <v>0</v>
       </c>
+      <c r="AD9" t="n">
+        <v>155895</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1486,10 +1516,10 @@
         <v>42832</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -1536,22 +1566,25 @@
       <c r="AC10" t="b">
         <v>0</v>
       </c>
+      <c r="AD10" t="n">
+        <v>155896</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -1561,10 +1594,10 @@
         <v>42823</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
         <v>0.2625</v>
@@ -1615,22 +1648,25 @@
       <c r="AC11" t="b">
         <v>0</v>
       </c>
+      <c r="AD11" t="n">
+        <v>155719</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -1640,10 +1676,10 @@
         <v>42832</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12" t="n">
         <v>0.05</v>
@@ -1694,22 +1730,25 @@
       <c r="AC12" t="b">
         <v>0</v>
       </c>
+      <c r="AD12" t="n">
+        <v>155859</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -1719,10 +1758,10 @@
         <v>42892</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" t="n">
         <v>0.18</v>
@@ -1773,22 +1812,25 @@
       <c r="AC13" t="b">
         <v>0</v>
       </c>
+      <c r="AD13" t="n">
+        <v>159739</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -1798,10 +1840,10 @@
         <v>42962</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -1848,22 +1890,25 @@
       <c r="AC14" t="b">
         <v>0</v>
       </c>
+      <c r="AD14" t="n">
+        <v>162716</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -1873,10 +1918,10 @@
         <v>42961</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -1923,22 +1968,25 @@
       <c r="AC15" t="b">
         <v>0</v>
       </c>
+      <c r="AD15" t="n">
+        <v>162717</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -1948,10 +1996,10 @@
         <v>42832</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -1998,22 +2046,25 @@
       <c r="AC16" t="b">
         <v>0</v>
       </c>
+      <c r="AD16" t="n">
+        <v>155894</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -2023,10 +2074,10 @@
         <v>42892</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2073,22 +2124,25 @@
       <c r="AC17" t="b">
         <v>0</v>
       </c>
+      <c r="AD17" t="n">
+        <v>156955</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2098,10 +2152,10 @@
         <v>42843</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -2148,22 +2202,25 @@
       <c r="AC18" t="b">
         <v>0</v>
       </c>
+      <c r="AD18" t="n">
+        <v>156956</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -2173,10 +2230,10 @@
         <v>42828</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" t="n">
         <v>0.1</v>
@@ -2227,22 +2284,25 @@
       <c r="AC19" t="b">
         <v>0</v>
       </c>
+      <c r="AD19" t="n">
+        <v>156036</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -2252,10 +2312,10 @@
         <v>42832</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2302,22 +2362,25 @@
       <c r="AC20" t="b">
         <v>0</v>
       </c>
+      <c r="AD20" t="n">
+        <v>156207</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -2327,10 +2390,10 @@
         <v>42843</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -2377,22 +2440,25 @@
       <c r="AC21" t="b">
         <v>0</v>
       </c>
+      <c r="AD21" t="n">
+        <v>156954</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -2402,10 +2468,10 @@
         <v>43335</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K22" t="n">
         <v>0.8</v>
@@ -2456,22 +2522,25 @@
       <c r="AC22" t="b">
         <v>0</v>
       </c>
+      <c r="AD22" t="n">
+        <v>156105</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -2481,10 +2550,10 @@
         <v>42866</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23" t="n">
         <v>0.22</v>
@@ -2535,22 +2604,25 @@
       <c r="AC23" t="b">
         <v>0</v>
       </c>
+      <c r="AD23" t="n">
+        <v>158208</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -2560,10 +2632,10 @@
         <v>43011</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" t="n">
         <v>11.019</v>
@@ -2614,22 +2686,25 @@
       <c r="AC24" t="b">
         <v>0</v>
       </c>
+      <c r="AD24" t="n">
+        <v>164381</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -2639,10 +2714,10 @@
         <v>43038</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="n">
         <v>0.25</v>
@@ -2693,22 +2768,25 @@
       <c r="AC25" t="b">
         <v>0</v>
       </c>
+      <c r="AD25" t="n">
+        <v>156326</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -2718,10 +2796,10 @@
         <v>42852</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26" t="n">
         <v>2.5</v>
@@ -2772,22 +2850,25 @@
       <c r="AC26" t="b">
         <v>0</v>
       </c>
+      <c r="AD26" t="n">
+        <v>157518</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -2797,10 +2878,10 @@
         <v>42852</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -2847,22 +2928,25 @@
       <c r="AC27" t="b">
         <v>0</v>
       </c>
+      <c r="AD27" t="n">
+        <v>157170</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -2872,10 +2956,10 @@
         <v>42852</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -2922,22 +3006,25 @@
       <c r="AC28" t="b">
         <v>0</v>
       </c>
+      <c r="AD28" t="n">
+        <v>157171</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -2947,10 +3034,10 @@
         <v>42850</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
@@ -3001,22 +3088,25 @@
       <c r="AC29" t="b">
         <v>0</v>
       </c>
+      <c r="AD29" t="n">
+        <v>157136</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -3026,10 +3116,10 @@
         <v>42850</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30" t="n">
         <v>3.6</v>
@@ -3080,22 +3170,25 @@
       <c r="AC30" t="b">
         <v>0</v>
       </c>
+      <c r="AD30" t="n">
+        <v>157365</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -3105,10 +3198,10 @@
         <v>43060</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
@@ -3155,22 +3248,25 @@
       <c r="AC31" t="b">
         <v>0</v>
       </c>
+      <c r="AD31" t="n">
+        <v>157309</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -3180,10 +3276,10 @@
         <v>42857</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
@@ -3230,22 +3326,25 @@
       <c r="AC32" t="b">
         <v>0</v>
       </c>
+      <c r="AD32" t="n">
+        <v>157310</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -3255,10 +3354,10 @@
         <v>43136</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -3305,22 +3404,25 @@
       <c r="AC33" t="b">
         <v>0</v>
       </c>
+      <c r="AD33" t="n">
+        <v>157311</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -3330,10 +3432,10 @@
         <v>42895</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
@@ -3380,22 +3482,25 @@
       <c r="AC34" t="b">
         <v>0</v>
       </c>
+      <c r="AD34" t="n">
+        <v>157315</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -3405,10 +3510,10 @@
         <v>42895</v>
       </c>
       <c r="I35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
@@ -3455,22 +3560,25 @@
       <c r="AC35" t="b">
         <v>0</v>
       </c>
+      <c r="AD35" t="n">
+        <v>157316</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -3480,10 +3588,10 @@
         <v>42927</v>
       </c>
       <c r="I36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
@@ -3530,22 +3638,25 @@
       <c r="AC36" t="b">
         <v>0</v>
       </c>
+      <c r="AD36" t="n">
+        <v>161210</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -3555,10 +3666,10 @@
         <v>42895</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -3605,22 +3716,25 @@
       <c r="AC37" t="b">
         <v>0</v>
       </c>
+      <c r="AD37" t="n">
+        <v>157533</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -3630,10 +3744,10 @@
         <v>42860</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
@@ -3680,22 +3794,25 @@
       <c r="AC38" t="b">
         <v>0</v>
       </c>
+      <c r="AD38" t="n">
+        <v>157539</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -3705,10 +3822,10 @@
         <v>42860</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
@@ -3755,22 +3872,25 @@
       <c r="AC39" t="b">
         <v>0</v>
       </c>
+      <c r="AD39" t="n">
+        <v>157540</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -3780,10 +3900,10 @@
         <v>42860</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -3830,22 +3950,25 @@
       <c r="AC40" t="b">
         <v>0</v>
       </c>
+      <c r="AD40" t="n">
+        <v>157541</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -3855,10 +3978,10 @@
         <v>42860</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -3905,22 +4028,25 @@
       <c r="AC41" t="b">
         <v>0</v>
       </c>
+      <c r="AD41" t="n">
+        <v>157542</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -3930,10 +4056,10 @@
         <v>42877</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
@@ -3980,22 +4106,25 @@
       <c r="AC42" t="b">
         <v>0</v>
       </c>
+      <c r="AD42" t="n">
+        <v>157544</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -4005,10 +4134,10 @@
         <v>42877</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
@@ -4055,22 +4184,25 @@
       <c r="AC43" t="b">
         <v>0</v>
       </c>
+      <c r="AD43" t="n">
+        <v>157545</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -4080,10 +4212,10 @@
         <v>43060</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -4130,22 +4262,25 @@
       <c r="AC44" t="b">
         <v>0</v>
       </c>
+      <c r="AD44" t="n">
+        <v>157546</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -4155,10 +4290,10 @@
         <v>42895</v>
       </c>
       <c r="I45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -4205,22 +4340,25 @@
       <c r="AC45" t="b">
         <v>0</v>
       </c>
+      <c r="AD45" t="n">
+        <v>157547</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -4230,10 +4368,10 @@
         <v>42895</v>
       </c>
       <c r="I46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -4280,22 +4418,25 @@
       <c r="AC46" t="b">
         <v>0</v>
       </c>
+      <c r="AD46" t="n">
+        <v>157548</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -4305,10 +4446,10 @@
         <v>42892</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K47"/>
       <c r="L47"/>
@@ -4355,22 +4496,25 @@
       <c r="AC47" t="b">
         <v>0</v>
       </c>
+      <c r="AD47" t="n">
+        <v>157169</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -4380,10 +4524,10 @@
         <v>42877</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
@@ -4430,22 +4574,25 @@
       <c r="AC48" t="b">
         <v>0</v>
       </c>
+      <c r="AD48" t="n">
+        <v>158578</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -4455,10 +4602,10 @@
         <v>43193</v>
       </c>
       <c r="I49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -4505,22 +4652,25 @@
       <c r="AC49" t="b">
         <v>0</v>
       </c>
+      <c r="AD49" t="n">
+        <v>157531</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -4530,10 +4680,10 @@
         <v>43193</v>
       </c>
       <c r="I50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K50"/>
       <c r="L50"/>
@@ -4580,22 +4730,25 @@
       <c r="AC50" t="b">
         <v>0</v>
       </c>
+      <c r="AD50" t="n">
+        <v>157532</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -4605,10 +4758,10 @@
         <v>42877</v>
       </c>
       <c r="I51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K51" t="n">
         <v>0.225</v>
@@ -4659,22 +4812,25 @@
       <c r="AC51" t="b">
         <v>0</v>
       </c>
+      <c r="AD51" t="n">
+        <v>158444</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -4684,10 +4840,10 @@
         <v>42877</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K52" t="n">
         <v>0.3</v>
@@ -4738,22 +4894,25 @@
       <c r="AC52" t="b">
         <v>0</v>
       </c>
+      <c r="AD52" t="n">
+        <v>158445</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -4763,10 +4922,10 @@
         <v>43060</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K53" t="n">
         <v>0.15</v>
@@ -4817,22 +4976,25 @@
       <c r="AC53" t="b">
         <v>0</v>
       </c>
+      <c r="AD53" t="n">
+        <v>159740</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -4842,10 +5004,10 @@
         <v>43126</v>
       </c>
       <c r="I54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K54" t="n">
         <v>0.4</v>
@@ -4896,22 +5058,25 @@
       <c r="AC54" t="b">
         <v>0</v>
       </c>
+      <c r="AD54" t="n">
+        <v>159741</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -4921,10 +5086,10 @@
         <v>43063</v>
       </c>
       <c r="I55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K55"/>
       <c r="L55"/>
@@ -4971,22 +5136,25 @@
       <c r="AC55" t="b">
         <v>0</v>
       </c>
+      <c r="AD55" t="n">
+        <v>160902</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -4996,10 +5164,10 @@
         <v>43063</v>
       </c>
       <c r="I56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
@@ -5046,22 +5214,25 @@
       <c r="AC56" t="b">
         <v>0</v>
       </c>
+      <c r="AD56" t="n">
+        <v>160903</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -5071,10 +5242,10 @@
         <v>43097</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K57" t="n">
         <v>0.4</v>
@@ -5125,22 +5296,25 @@
       <c r="AC57" t="b">
         <v>0</v>
       </c>
+      <c r="AD57" t="n">
+        <v>160172</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -5150,10 +5324,10 @@
         <v>43097</v>
       </c>
       <c r="I58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K58" t="n">
         <v>0.35</v>
@@ -5204,22 +5378,25 @@
       <c r="AC58" t="b">
         <v>0</v>
       </c>
+      <c r="AD58" t="n">
+        <v>160544</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -5229,10 +5406,10 @@
         <v>43063</v>
       </c>
       <c r="I59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
@@ -5279,22 +5456,25 @@
       <c r="AC59" t="b">
         <v>0</v>
       </c>
+      <c r="AD59" t="n">
+        <v>166596</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -5304,10 +5484,10 @@
         <v>43063</v>
       </c>
       <c r="I60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K60"/>
       <c r="L60"/>
@@ -5354,22 +5534,25 @@
       <c r="AC60" t="b">
         <v>0</v>
       </c>
+      <c r="AD60" t="n">
+        <v>166597</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -5379,10 +5562,10 @@
         <v>42984</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K61" t="n">
         <v>0.3</v>
@@ -5433,22 +5616,25 @@
       <c r="AC61" t="b">
         <v>0</v>
       </c>
+      <c r="AD61" t="n">
+        <v>163425</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -5458,10 +5644,10 @@
         <v>43063</v>
       </c>
       <c r="I62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K62"/>
       <c r="L62"/>
@@ -5508,22 +5694,25 @@
       <c r="AC62" t="b">
         <v>0</v>
       </c>
+      <c r="AD62" t="n">
+        <v>166601</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -5533,10 +5722,10 @@
         <v>43063</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
@@ -5583,22 +5772,25 @@
       <c r="AC63" t="b">
         <v>0</v>
       </c>
+      <c r="AD63" t="n">
+        <v>164058</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -5608,10 +5800,10 @@
         <v>43117</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K64" t="n">
         <v>0.15</v>
@@ -5662,22 +5854,25 @@
       <c r="AC64" t="b">
         <v>0</v>
       </c>
+      <c r="AD64" t="n">
+        <v>169536</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -5687,10 +5882,10 @@
         <v>43117</v>
       </c>
       <c r="I65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K65" t="n">
         <v>0.12</v>
@@ -5740,6 +5935,9 @@
       <c r="AB65"/>
       <c r="AC65" t="b">
         <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>169551</v>
       </c>
     </row>
   </sheetData>

--- a/output/Peru_formatted.xlsx
+++ b/output/Peru_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -62,9 +62,6 @@
     <t xml:space="preserve">Grant Portion</t>
   </si>
   <si>
-    <t xml:space="preserve">Feb-17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mar-17</t>
   </si>
   <si>
@@ -114,15 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">Latin America &amp; Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education Cannot Wait Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rehabilitation of 22 classrooms and bathrooms and development of regional plan to bring back school children to the classrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-ECW-0031</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay, Government of</t>
@@ -860,53 +848,50 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
-        <v>42768</v>
+        <v>42814</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>43103</v>
+        <v>42832</v>
       </c>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N2"/>
       <c r="O2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -929,34 +914,31 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>168805</v>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>155903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -966,25 +948,29 @@
         <v>42832</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.007</v>
+      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.19861</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.19861</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.19861</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1005,36 +991,33 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
+        <v>0.19861</v>
+      </c>
+      <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>155903</v>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>155905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1044,23 +1027,19 @@
         <v>42832</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.007</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4" t="n">
-        <v>0.19861</v>
+        <v>0</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.19861</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1069,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.19861</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1089,34 +1068,31 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0.19861</v>
-      </c>
+      <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>155905</v>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>155904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1126,10 +1102,10 @@
         <v>42832</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -1167,34 +1143,31 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>155904</v>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>155897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1204,10 +1177,10 @@
         <v>42832</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -1245,34 +1218,31 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>155897</v>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>155898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1282,10 +1252,10 @@
         <v>42832</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1323,47 +1293,44 @@
       <c r="X7" t="n">
         <v>0</v>
       </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>155898</v>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>155899</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1401,47 +1368,44 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>155899</v>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>155895</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
-        <v>42815</v>
+        <v>42817</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1479,62 +1443,63 @@
       <c r="X9" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>155895</v>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>155896</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>42832</v>
+        <v>42823</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
+        <v>52</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.345</v>
+      </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.195167</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.195167</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.195167</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1555,71 +1520,68 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
+        <v>0.195167</v>
+      </c>
+      <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>155896</v>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>155719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
         <v>42818</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.2625</v>
+        <v>0.05</v>
       </c>
       <c r="L11" t="n">
-        <v>1.345</v>
+        <v>0.937</v>
       </c>
       <c r="M11" t="n">
-        <v>0.195167</v>
+        <v>0.053362</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.195167</v>
+        <v>0.053362</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.053362</v>
       </c>
       <c r="R11" t="n">
-        <v>0.195167</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1637,71 +1599,68 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.195167</v>
-      </c>
+        <v>0.053362</v>
+      </c>
+      <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>155719</v>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>155859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
         <v>42818</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>42832</v>
+        <v>42892</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="L12" t="n">
-        <v>0.937</v>
+        <v>1.345</v>
       </c>
       <c r="M12" t="n">
-        <v>0.053362</v>
+        <v>0.133829</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.053362</v>
+        <v>0.133829</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.133829</v>
       </c>
       <c r="R12" t="n">
-        <v>0.053362</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1719,71 +1678,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.053362</v>
-      </c>
+        <v>0.133829</v>
+      </c>
+      <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>155859</v>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>159739</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
         <v>42818</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>42892</v>
+        <v>42962</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.345</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
       <c r="M13" t="n">
-        <v>0.133829</v>
+        <v>0.2</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.133829</v>
+        <v>0.2</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0.133829</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1801,67 +1753,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.133829</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>159739</v>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>162716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
         <v>42818</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>42962</v>
+        <v>42961</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1879,58 +1828,55 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>162716</v>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>162717</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
-        <v>42818</v>
+        <v>42821</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>42961</v>
+        <v>42832</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1939,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1959,62 +1905,59 @@
       <c r="X15" t="n">
         <v>0</v>
       </c>
-      <c r="Y15" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>162717</v>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>155894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
         <v>42821</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>42832</v>
+        <v>42892</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2035,67 +1978,64 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>155894</v>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>156955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
         <v>42821</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>42892</v>
+        <v>42843</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="N17"/>
       <c r="O17" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R17" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2113,67 +2053,68 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.15</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>156955</v>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>156956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>42843</v>
+        <v>42828</v>
       </c>
       <c r="I18" t="s">
         <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18"/>
+        <v>35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.903</v>
+      </c>
       <c r="M18" t="n">
-        <v>0.05</v>
+        <v>0.011232</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="n">
-        <v>0.05</v>
+        <v>0.011232</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.011232</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2191,62 +2132,55 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.05</v>
-      </c>
+        <v>0.011232</v>
+      </c>
+      <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>156956</v>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>156036</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
         <v>42822</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>42828</v>
+        <v>42832</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>8.903</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
       <c r="M19" t="n">
-        <v>0.011232</v>
+        <v>0</v>
       </c>
       <c r="N19"/>
       <c r="O19" t="n">
-        <v>0.011232</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2255,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.011232</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2275,62 +2209,59 @@
       <c r="X19" t="n">
         <v>0</v>
       </c>
-      <c r="Y19" t="n">
-        <v>0.011232</v>
-      </c>
+      <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>156036</v>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>156207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
         <v>42822</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>42832</v>
+        <v>42843</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2351,67 +2282,68 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>156207</v>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>156954</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
-        <v>42822</v>
+        <v>42824</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>42843</v>
+        <v>43335</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21"/>
+        <v>74</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.943</v>
+      </c>
       <c r="M21" t="n">
-        <v>0.1</v>
+        <v>0.848356</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>0.1</v>
+        <v>0.848356</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.848356</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2429,71 +2361,68 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.1</v>
-      </c>
+        <v>0.848356</v>
+      </c>
+      <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>156954</v>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>156105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
-        <v>42824</v>
+        <v>42825</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>43335</v>
+        <v>42866</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8</v>
+        <v>0.22</v>
       </c>
       <c r="L22" t="n">
-        <v>0.943</v>
+        <v>1.006</v>
       </c>
       <c r="M22" t="n">
-        <v>0.848356</v>
+        <v>0.218688</v>
       </c>
       <c r="N22"/>
       <c r="O22" t="n">
-        <v>0.848356</v>
+        <v>0.218688</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.218688</v>
       </c>
       <c r="R22" t="n">
-        <v>0.848356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2511,62 +2440,59 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.848356</v>
-      </c>
+        <v>0.218688</v>
+      </c>
+      <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>156105</v>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>158208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
-        <v>42825</v>
+        <v>42826</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>42866</v>
+        <v>43011</v>
       </c>
       <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
         <v>79</v>
       </c>
-      <c r="J23" t="s">
-        <v>80</v>
-      </c>
       <c r="K23" t="n">
-        <v>0.22</v>
+        <v>11.019</v>
       </c>
       <c r="L23" t="n">
-        <v>1.006</v>
+        <v>3.673</v>
       </c>
       <c r="M23" t="n">
-        <v>0.218688</v>
+        <v>3</v>
       </c>
       <c r="N23"/>
       <c r="O23" t="n">
-        <v>0.218688</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2575,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.218688</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2593,62 +2519,59 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.218688</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>158208</v>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>164381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
-        <v>42826</v>
+        <v>42828</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>43011</v>
+        <v>43038</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K24" t="n">
-        <v>11.019</v>
+        <v>0.25</v>
       </c>
       <c r="L24" t="n">
-        <v>3.673</v>
+        <v>0.931</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>0.268528</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>0.268528</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2657,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.268528</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2675,62 +2598,59 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>3</v>
-      </c>
+        <v>0.268528</v>
+      </c>
+      <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>164381</v>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>156326</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
-        <v>42828</v>
+        <v>42832</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>43038</v>
+        <v>42852</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0.931</v>
+        <v>8.903</v>
       </c>
       <c r="M25" t="n">
-        <v>0.268528</v>
+        <v>0.280804</v>
       </c>
       <c r="N25"/>
       <c r="O25" t="n">
-        <v>0.268528</v>
+        <v>0.280804</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2739,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.280804</v>
       </c>
       <c r="S25" t="n">
-        <v>0.268528</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2757,62 +2677,55 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.268528</v>
-      </c>
+        <v>0.280804</v>
+      </c>
+      <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>156326</v>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>157518</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
-        <v>42832</v>
+        <v>42835</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>42852</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8.903</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
       <c r="M26" t="n">
-        <v>0.280804</v>
+        <v>1.620162</v>
       </c>
       <c r="N26"/>
       <c r="O26" t="n">
-        <v>0.280804</v>
+        <v>1.620162</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2821,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.620162</v>
       </c>
       <c r="S26" t="n">
-        <v>0.280804</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2839,36 +2752,33 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.280804</v>
-      </c>
+        <v>1.620162</v>
+      </c>
+      <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>157518</v>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>157170</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -2878,19 +2788,19 @@
         <v>42852</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>1.620162</v>
+        <v>1.136994</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>1.620162</v>
+        <v>1.136994</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2899,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.136994</v>
       </c>
       <c r="S27" t="n">
-        <v>1.620162</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2917,58 +2827,59 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.620162</v>
-      </c>
+        <v>1.136994</v>
+      </c>
+      <c r="Y27"/>
       <c r="Z27"/>
       <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>157170</v>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>157171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
-        <v>42835</v>
+        <v>42843</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>42852</v>
+        <v>42850</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28"/>
-      <c r="L28"/>
+        <v>35</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8.903</v>
+      </c>
       <c r="M28" t="n">
-        <v>1.136994</v>
+        <v>0.224643</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>1.136994</v>
+        <v>0.224643</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -2977,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.224643</v>
       </c>
       <c r="S28" t="n">
-        <v>1.136994</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2995,62 +2906,59 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.136994</v>
-      </c>
+        <v>0.224643</v>
+      </c>
+      <c r="Y28"/>
       <c r="Z28"/>
       <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>157171</v>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>157136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
-        <v>42843</v>
+        <v>42844</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>42850</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
         <v>8.903</v>
       </c>
       <c r="M29" t="n">
-        <v>0.224643</v>
+        <v>0.404358</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>0.224643</v>
+        <v>0.404358</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3059,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.404358</v>
       </c>
       <c r="S29" t="n">
-        <v>0.224643</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -3077,62 +2985,55 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.224643</v>
-      </c>
+        <v>0.404358</v>
+      </c>
+      <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>157136</v>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>157365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
-        <v>42844</v>
+        <v>42847</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>42850</v>
+        <v>43060</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>8.903</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30"/>
       <c r="M30" t="n">
-        <v>0.404358</v>
+        <v>0.370181</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.404358</v>
+        <v>0.370181</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3141,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.370181</v>
       </c>
       <c r="S30" t="n">
-        <v>0.404358</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -3159,58 +3060,55 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.404358</v>
-      </c>
+        <v>0.370181</v>
+      </c>
+      <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>157365</v>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>157309</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>43060</v>
+        <v>42857</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>0.370181</v>
+        <v>0.397633</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.370181</v>
+        <v>0.397633</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3219,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.397633</v>
       </c>
       <c r="S31" t="n">
-        <v>0.370181</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3237,58 +3135,55 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.370181</v>
-      </c>
+        <v>0.397633</v>
+      </c>
+      <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>157309</v>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>157310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>42857</v>
+        <v>43136</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="n">
-        <v>0.397633</v>
+        <v>0.288286</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.397633</v>
+        <v>0.288286</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3297,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.288286</v>
       </c>
       <c r="S32" t="n">
-        <v>0.397633</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3315,58 +3210,55 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.397633</v>
-      </c>
+        <v>0.288286</v>
+      </c>
+      <c r="Y32"/>
       <c r="Z32"/>
       <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>157310</v>
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>157311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>43136</v>
+        <v>42895</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="n">
-        <v>0.288286</v>
+        <v>0.230416</v>
       </c>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>0.288286</v>
+        <v>0.230416</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3375,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.230416</v>
       </c>
       <c r="S33" t="n">
-        <v>0.288286</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3393,36 +3285,33 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0.288286</v>
-      </c>
+        <v>0.230416</v>
+      </c>
+      <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>157311</v>
+      <c r="AB33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>157315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -3432,19 +3321,19 @@
         <v>42895</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="n">
-        <v>0.230416</v>
+        <v>0.186102</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="n">
-        <v>0.230416</v>
+        <v>0.186102</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3453,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.186102</v>
       </c>
       <c r="S34" t="n">
-        <v>0.230416</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3471,58 +3360,55 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.230416</v>
-      </c>
+        <v>0.186102</v>
+      </c>
+      <c r="Y34"/>
       <c r="Z34"/>
       <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>157315</v>
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>157316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>42895</v>
+        <v>42927</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>0.186102</v>
+        <v>0.77</v>
       </c>
       <c r="N35"/>
       <c r="O35" t="n">
-        <v>0.186102</v>
+        <v>0.77</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3531,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="S35" t="n">
-        <v>0.186102</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3549,58 +3435,55 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.186102</v>
-      </c>
+        <v>0.77</v>
+      </c>
+      <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>157316</v>
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>161210</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
-        <v>42847</v>
+        <v>42851</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>42927</v>
+        <v>42895</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J36" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>0.77</v>
+        <v>1.350657</v>
       </c>
       <c r="N36"/>
       <c r="O36" t="n">
-        <v>0.77</v>
+        <v>1.350657</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -3609,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.350657</v>
       </c>
       <c r="S36" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3627,58 +3510,55 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.77</v>
-      </c>
+        <v>1.350657</v>
+      </c>
+      <c r="Y36"/>
       <c r="Z36"/>
       <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>161210</v>
+      <c r="AB36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>157533</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>42895</v>
+        <v>42860</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>1.350657</v>
+        <v>0.127505</v>
       </c>
       <c r="N37"/>
       <c r="O37" t="n">
-        <v>1.350657</v>
+        <v>0.127505</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -3687,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.127505</v>
       </c>
       <c r="S37" t="n">
-        <v>1.350657</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3705,36 +3585,33 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1.350657</v>
-      </c>
+        <v>0.127505</v>
+      </c>
+      <c r="Y37"/>
       <c r="Z37"/>
       <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>157533</v>
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>157539</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -3744,19 +3621,19 @@
         <v>42860</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="n">
-        <v>0.127505</v>
+        <v>0.055784</v>
       </c>
       <c r="N38"/>
       <c r="O38" t="n">
-        <v>0.127505</v>
+        <v>0.055784</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3765,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.055784</v>
       </c>
       <c r="S38" t="n">
-        <v>0.127505</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3783,36 +3660,33 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.127505</v>
-      </c>
+        <v>0.055784</v>
+      </c>
+      <c r="Y38"/>
       <c r="Z38"/>
       <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>157539</v>
+      <c r="AB38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>157540</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -3822,19 +3696,19 @@
         <v>42860</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="n">
-        <v>0.055784</v>
+        <v>0.031876</v>
       </c>
       <c r="N39"/>
       <c r="O39" t="n">
-        <v>0.055784</v>
+        <v>0.031876</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -3843,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.031876</v>
       </c>
       <c r="S39" t="n">
-        <v>0.055784</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3861,36 +3735,33 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0.055784</v>
-      </c>
+        <v>0.031876</v>
+      </c>
+      <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>157540</v>
+      <c r="AB39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>157541</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -3900,19 +3771,19 @@
         <v>42860</v>
       </c>
       <c r="I40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="n">
-        <v>0.031876</v>
+        <v>0.183193</v>
       </c>
       <c r="N40"/>
       <c r="O40" t="n">
-        <v>0.031876</v>
+        <v>0.183193</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -3921,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.183193</v>
       </c>
       <c r="S40" t="n">
-        <v>0.031876</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3939,58 +3810,55 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0.031876</v>
-      </c>
+        <v>0.183193</v>
+      </c>
+      <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>157541</v>
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>157542</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>42860</v>
+        <v>42877</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J41" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>0.183193</v>
+        <v>0.199937</v>
       </c>
       <c r="N41"/>
       <c r="O41" t="n">
-        <v>0.183193</v>
+        <v>0.199937</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -3999,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.199937</v>
       </c>
       <c r="S41" t="n">
-        <v>0.183193</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -4017,36 +3885,33 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0.183193</v>
-      </c>
+        <v>0.199937</v>
+      </c>
+      <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>157542</v>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>157544</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -4056,19 +3921,19 @@
         <v>42877</v>
       </c>
       <c r="I42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="n">
-        <v>0.199937</v>
+        <v>0.057674</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>0.199937</v>
+        <v>0.057674</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4077,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.057674</v>
       </c>
       <c r="S42" t="n">
-        <v>0.199937</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -4095,58 +3960,55 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0.199937</v>
-      </c>
+        <v>0.057674</v>
+      </c>
+      <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AC42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>157544</v>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>157545</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>42877</v>
+        <v>43060</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>0.057674</v>
+        <v>0.126883</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.057674</v>
+        <v>0.126883</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4155,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.126883</v>
       </c>
       <c r="S43" t="n">
-        <v>0.057674</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4173,58 +4035,55 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0.057674</v>
-      </c>
+        <v>0.126883</v>
+      </c>
+      <c r="Y43"/>
       <c r="Z43"/>
       <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>157545</v>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>157546</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>43060</v>
+        <v>42895</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="n">
-        <v>0.126883</v>
+        <v>0.28315</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>0.126883</v>
+        <v>0.28315</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4233,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.28315</v>
       </c>
       <c r="S44" t="n">
-        <v>0.126883</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4251,36 +4110,33 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0.126883</v>
-      </c>
+        <v>0.28315</v>
+      </c>
+      <c r="Y44"/>
       <c r="Z44"/>
       <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>157546</v>
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>157547</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -4290,19 +4146,19 @@
         <v>42895</v>
       </c>
       <c r="I45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="n">
-        <v>0.28315</v>
+        <v>0.258669</v>
       </c>
       <c r="N45"/>
       <c r="O45" t="n">
-        <v>0.28315</v>
+        <v>0.258669</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4311,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.258669</v>
       </c>
       <c r="S45" t="n">
-        <v>0.28315</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4329,58 +4185,55 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0.28315</v>
-      </c>
+        <v>0.258669</v>
+      </c>
+      <c r="Y45"/>
       <c r="Z45"/>
       <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AC45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>157547</v>
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>157548</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
-        <v>42851</v>
+        <v>42852</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>42895</v>
+        <v>42892</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" t="n">
-        <v>0.258669</v>
+        <v>0.2</v>
       </c>
       <c r="N46"/>
       <c r="O46" t="n">
-        <v>0.258669</v>
+        <v>0.2</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4389,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S46" t="n">
-        <v>0.258669</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4407,58 +4260,55 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0.258669</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AC46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>157548</v>
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>157169</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
-        <v>42852</v>
+        <v>42855</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>42892</v>
+        <v>42877</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4467,10 +4317,10 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S47" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4485,58 +4335,55 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0.2</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="Y47"/>
       <c r="Z47"/>
       <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>157169</v>
+      <c r="AB47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>158578</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
-        <v>42855</v>
+        <v>42851</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>42877</v>
+        <v>43193</v>
       </c>
       <c r="I48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="n">
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4548,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4563,36 +4410,33 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0.3</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>
-      <c r="AB48"/>
-      <c r="AC48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>158578</v>
+      <c r="AB48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>157531</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -4602,19 +4446,19 @@
         <v>43193</v>
       </c>
       <c r="I49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="n">
-        <v>0.125</v>
+        <v>0.125016</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.125</v>
+        <v>0.125016</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4626,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.125016</v>
       </c>
       <c r="T49" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4641,58 +4485,59 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0.125</v>
-      </c>
+        <v>0.125016</v>
+      </c>
+      <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>157531</v>
+      <c r="AB49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>157532</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
-        <v>42851</v>
+        <v>42858</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>43193</v>
+        <v>42877</v>
       </c>
       <c r="I50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50"/>
+        <v>111</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.921</v>
+      </c>
       <c r="M50" t="n">
-        <v>0.125016</v>
+        <v>0.2443</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>0.125016</v>
+        <v>0.2443</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4704,10 +4549,10 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>0.2443</v>
       </c>
       <c r="T50" t="n">
-        <v>0.125016</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4719,36 +4564,33 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0.125016</v>
-      </c>
+        <v>0.2443</v>
+      </c>
+      <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50"/>
-      <c r="AB50"/>
-      <c r="AC50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>157532</v>
+      <c r="AB50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>158444</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -4758,23 +4600,23 @@
         <v>42877</v>
       </c>
       <c r="I51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K51" t="n">
-        <v>0.225</v>
+        <v>0.3</v>
       </c>
       <c r="L51" t="n">
         <v>0.921</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2443</v>
+        <v>0.325733</v>
       </c>
       <c r="N51"/>
       <c r="O51" t="n">
-        <v>0.2443</v>
+        <v>0.325733</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -4786,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>0.325733</v>
       </c>
       <c r="T51" t="n">
-        <v>0.2443</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -4801,62 +4643,59 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0.2443</v>
-      </c>
+        <v>0.325733</v>
+      </c>
+      <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51"/>
-      <c r="AB51"/>
-      <c r="AC51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>158444</v>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>158445</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
-        <v>42858</v>
+        <v>42860</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>42877</v>
+        <v>43060</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="L52" t="n">
-        <v>0.921</v>
+        <v>1.362</v>
       </c>
       <c r="M52" t="n">
-        <v>0.325733</v>
+        <v>0.110132</v>
       </c>
       <c r="N52"/>
       <c r="O52" t="n">
-        <v>0.325733</v>
+        <v>0.110132</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -4868,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>0.110132</v>
       </c>
       <c r="T52" t="n">
-        <v>0.325733</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -4883,62 +4722,59 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0.325733</v>
-      </c>
+        <v>0.110132</v>
+      </c>
+      <c r="Y52"/>
       <c r="Z52"/>
       <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>158445</v>
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>159740</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
         <v>42860</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>43060</v>
+        <v>43126</v>
       </c>
       <c r="I53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K53" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.362</v>
+        <v>1.348</v>
       </c>
       <c r="M53" t="n">
-        <v>0.110132</v>
+        <v>0.296736</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>0.110132</v>
+        <v>0.296736</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -4950,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>0.296736</v>
       </c>
       <c r="T53" t="n">
-        <v>0.110132</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4965,62 +4801,55 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0.110132</v>
-      </c>
+        <v>0.296736</v>
+      </c>
+      <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AC53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>159740</v>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>159741</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
-        <v>42860</v>
+        <v>42865</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>43126</v>
+        <v>43063</v>
       </c>
       <c r="I54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.348</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
       <c r="M54" t="n">
-        <v>0.296736</v>
+        <v>0.077</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="n">
-        <v>0.296736</v>
+        <v>0.077</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5032,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>0.077</v>
       </c>
       <c r="T54" t="n">
-        <v>0.296736</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -5047,58 +4876,55 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0.296736</v>
-      </c>
+        <v>0.077</v>
+      </c>
+      <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>159741</v>
+      <c r="AB54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>160902</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
-        <v>42865</v>
+        <v>42892</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>43063</v>
       </c>
       <c r="I55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J55" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55" t="n">
-        <v>0.077</v>
+        <v>0.055031</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="n">
-        <v>0.077</v>
+        <v>0.055031</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5113,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.077</v>
+        <v>0.055031</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5125,58 +4951,59 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0.077</v>
-      </c>
+        <v>0.055031</v>
+      </c>
+      <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>160902</v>
+      <c r="AB55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>160903</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>43063</v>
+        <v>43097</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
-      </c>
-      <c r="K56"/>
-      <c r="L56"/>
+        <v>122</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.893</v>
+      </c>
       <c r="M56" t="n">
-        <v>0.055031</v>
+        <v>0.447929</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="n">
-        <v>0.055031</v>
+        <v>0.447929</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5191,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>0.447929</v>
       </c>
       <c r="U56" t="n">
-        <v>0.055031</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5203,36 +5030,33 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0.055031</v>
-      </c>
+        <v>0.447929</v>
+      </c>
+      <c r="Y56"/>
       <c r="Z56"/>
       <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>160903</v>
+      <c r="AB56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>160172</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -5242,23 +5066,23 @@
         <v>43097</v>
       </c>
       <c r="I57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="L57" t="n">
         <v>0.893</v>
       </c>
       <c r="M57" t="n">
-        <v>0.447929</v>
+        <v>0.391937</v>
       </c>
       <c r="N57"/>
       <c r="O57" t="n">
-        <v>0.447929</v>
+        <v>0.391937</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5273,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>0.391937</v>
       </c>
       <c r="U57" t="n">
-        <v>0.447929</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5285,62 +5109,55 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0.447929</v>
-      </c>
+        <v>0.391937</v>
+      </c>
+      <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>160172</v>
+      <c r="AB57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>160544</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
-        <v>42893</v>
+        <v>42907</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>43097</v>
+        <v>43063</v>
       </c>
       <c r="I58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J58" t="s">
-        <v>128</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.893</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
       <c r="M58" t="n">
-        <v>0.391937</v>
+        <v>0.142952</v>
       </c>
       <c r="N58"/>
       <c r="O58" t="n">
-        <v>0.391937</v>
+        <v>0.142952</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5355,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>0.142952</v>
       </c>
       <c r="U58" t="n">
-        <v>0.391937</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5367,58 +5184,55 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0.391937</v>
-      </c>
+        <v>0.142952</v>
+      </c>
+      <c r="Y58"/>
       <c r="Z58"/>
       <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>160544</v>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>166596</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
-        <v>42907</v>
+        <v>42922</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>43063</v>
       </c>
       <c r="I59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="n">
-        <v>0.142952</v>
+        <v>1.374166</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0.142952</v>
+        <v>1.374166</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -5436,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0.142952</v>
+        <v>1.374166</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5445,58 +5259,59 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>0.142952</v>
-      </c>
+        <v>1.374166</v>
+      </c>
+      <c r="Y59"/>
       <c r="Z59"/>
       <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>166596</v>
+      <c r="AB59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>166597</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
-        <v>42922</v>
+        <v>42947</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>43063</v>
+        <v>42984</v>
       </c>
       <c r="I60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J60" t="s">
-        <v>132</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60"/>
+        <v>130</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.959</v>
+      </c>
       <c r="M60" t="n">
-        <v>1.374166</v>
+        <v>0.312826</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>1.374166</v>
+        <v>0.312826</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -5514,71 +5329,64 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>0.312826</v>
       </c>
       <c r="V60" t="n">
-        <v>1.374166</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>1.374166</v>
-      </c>
+        <v>0.312826</v>
+      </c>
+      <c r="Y60"/>
       <c r="Z60"/>
       <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>166597</v>
+      <c r="AB60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>163425</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
-        <v>42947</v>
+        <v>42950</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>42984</v>
+        <v>43063</v>
       </c>
       <c r="I61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.959</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61"/>
       <c r="M61" t="n">
-        <v>0.312826</v>
+        <v>2.4</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>0.312826</v>
+        <v>2.4</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -5599,64 +5407,61 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>0.312826</v>
+        <v>2.4</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>0.312826</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="Y61"/>
       <c r="Z61"/>
       <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AC61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>163425</v>
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>166601</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
-        <v>42950</v>
+        <v>42954</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>43063</v>
       </c>
       <c r="I62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62" t="n">
-        <v>2.4</v>
+        <v>0.819705</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
-        <v>2.4</v>
+        <v>0.819705</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -5677,64 +5482,65 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>0.819705</v>
       </c>
       <c r="W62" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>2.4</v>
-      </c>
+        <v>0.819705</v>
+      </c>
+      <c r="Y62"/>
       <c r="Z62"/>
       <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AC62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>166601</v>
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>164058</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
-        <v>42954</v>
+        <v>43051</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>43063</v>
+        <v>43117</v>
       </c>
       <c r="I63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J63" t="s">
-        <v>138</v>
-      </c>
-      <c r="K63"/>
-      <c r="L63"/>
+        <v>35</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.861</v>
+      </c>
       <c r="M63" t="n">
-        <v>0.819705</v>
+        <v>0.174216</v>
       </c>
       <c r="N63"/>
       <c r="O63" t="n">
-        <v>0.819705</v>
+        <v>0.174216</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -5758,39 +5564,36 @@
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>0.819705</v>
+        <v>0.174216</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0.819705</v>
-      </c>
+        <v>0.174216</v>
+      </c>
+      <c r="Y63"/>
       <c r="Z63"/>
       <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>164058</v>
+      <c r="AB63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>169536</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -5800,23 +5603,23 @@
         <v>43117</v>
       </c>
       <c r="I64" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K64" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="L64" t="n">
         <v>0.861</v>
       </c>
       <c r="M64" t="n">
-        <v>0.174216</v>
+        <v>0.139373</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>0.174216</v>
+        <v>0.139373</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -5840,103 +5643,18 @@
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>0.139373</v>
       </c>
       <c r="X64" t="n">
-        <v>0.174216</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0.174216</v>
-      </c>
+        <v>0.139373</v>
+      </c>
+      <c r="Y64"/>
       <c r="Z64"/>
       <c r="AA64"/>
-      <c r="AB64"/>
-      <c r="AC64" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>169536</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65"/>
-      <c r="G65" s="1" t="n">
-        <v>43051</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>43117</v>
-      </c>
-      <c r="I65" t="s">
-        <v>140</v>
-      </c>
-      <c r="J65" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.139373</v>
-      </c>
-      <c r="N65"/>
-      <c r="O65" t="n">
-        <v>0.139373</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0.139373</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0.139373</v>
-      </c>
-      <c r="Z65"/>
-      <c r="AA65"/>
-      <c r="AB65"/>
-      <c r="AC65" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
+      <c r="AB64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
         <v>169551</v>
       </c>
     </row>

--- a/output/Peru_formatted.xlsx
+++ b/output/Peru_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -101,6 +101,12 @@
     <t xml:space="preserve">Flow ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Recipient Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipient Organisation Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">PER</t>
   </si>
   <si>
@@ -122,6 +128,12 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Peru, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Switzerland, Government of</t>
   </si>
   <si>
@@ -173,6 +185,24 @@
     <t xml:space="preserve">D002717</t>
   </si>
   <si>
+    <t xml:space="preserve">Save the Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFRC Emergency Appeal Peru Floods (Health, WASH, Shelter, NFIs) (D000396)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D000396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Federation of Red Cross and Red Crescent Societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cross/Red Crescent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Germany, Government of</t>
   </si>
   <si>
@@ -182,12 +212,6 @@
     <t xml:space="preserve">AA-S09-321.50 PER 02/17</t>
   </si>
   <si>
-    <t xml:space="preserve">IFRC Emergency Appeal Peru Floods (Health, WASH, Shelter, NFIs) (D000396)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D000396</t>
-  </si>
-  <si>
     <t xml:space="preserve">Korea, Republic of, Government of</t>
   </si>
   <si>
@@ -197,22 +221,25 @@
     <t xml:space="preserve">Humanitarian assistance  for the population affected by flood and landslide in Peru (bilateral)</t>
   </si>
   <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water, Sanitation and Hygiene (USAID/OFDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AID-527-F-17-00005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Argentina, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">White Helmets deployed to Peru in response to floods (mission extended until 31 March)</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water, Sanitation and Hygiene (USAID/OFDA)</t>
-  </si>
-  <si>
     <t xml:space="preserve">AID-527-F-17-00007</t>
   </si>
   <si>
-    <t xml:space="preserve">AID-527-F-17-00005</t>
+    <t xml:space="preserve">Care Peru</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden, Government of</t>
@@ -221,15 +248,21 @@
     <t xml:space="preserve">Support through EUCP</t>
   </si>
   <si>
+    <t xml:space="preserve">Swedish Civil Contingencies Agency (MSB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AID-527-F-17-00006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventist Development and Relief Agency</t>
+  </si>
+  <si>
     <t xml:space="preserve">European Commission Civil Protection Mechanism</t>
   </si>
   <si>
     <t xml:space="preserve">The EU Civil Protection Mechanism activated an environmental expert and a liaison officer from the European Commission's Emergency Response Coordination Centre (ERCC); deployed personnel to the country. Sweden, Spain, Netherlands and Germany among the EUCP Participating States.</t>
   </si>
   <si>
-    <t xml:space="preserve">AID-527-F-17-00006</t>
-  </si>
-  <si>
     <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
   </si>
   <si>
@@ -239,12 +272,21 @@
     <t xml:space="preserve">ECHO/-AM/BUD/2017/91010</t>
   </si>
   <si>
+    <t xml:space="preserve">United Nations Development Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN agency</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency WASH support in response to the floodings in northern Peru (7F-09805.01 )</t>
   </si>
   <si>
     <t xml:space="preserve">7F-09805.01</t>
   </si>
   <si>
+    <t xml:space="preserve">CARITAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Arab Emirates, Government of</t>
   </si>
   <si>
@@ -254,15 +296,24 @@
     <t xml:space="preserve">GOV-2017-004</t>
   </si>
   <si>
+    <t xml:space="preserve">Red Crescent Society of the United Arab Emirates</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOS Coastal Niño (ECHO/DRF/BUD/2017/91002)</t>
   </si>
   <si>
     <t xml:space="preserve">ECHO/DRF/BUD/2017/91002</t>
   </si>
   <si>
+    <t xml:space="preserve">Stichting CARE Nederland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Support water, sanitation and hygiene for children and their families affected by floods in scattered and rural communities located in the districts of Catacaos, Cura Mori, Castilla, Tambo Grande, La Arena, La Unión and Las Lomas, in Piura</t>
   </si>
   <si>
+    <t xml:space="preserve">Plan International</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logistics support (DoD)</t>
   </si>
   <si>
@@ -272,37 +323,55 @@
     <t xml:space="preserve">Emergency Support to Flood-affected population</t>
   </si>
   <si>
+    <t xml:space="preserve">Swedish Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relief Assistance to Flood-affected Population of Piura Region</t>
   </si>
   <si>
+    <t xml:space="preserve">Action Contre la Faim</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central Emergency Response Fund</t>
   </si>
   <si>
+    <t xml:space="preserve">Temporary learning and education spaces safe for the protection of displaced children in Piura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM170199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Improvement of IDPs' conditions through the establishment and upgrading of shelters in Piura Region</t>
   </si>
   <si>
     <t xml:space="preserve">17-RR-IOM-013</t>
   </si>
   <si>
+    <t xml:space="preserve">International Organization for Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency temporary housing in districts of Piura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency restoration of food security and productive capacity of affected family farmers of Tambo Grande District in the Province of Piura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-RR-FAO-019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Increase access to safe water and sanitation in communities, shelters and health facilities affected by flooding</t>
   </si>
   <si>
     <t xml:space="preserve">17-RR-WHO-017</t>
   </si>
   <si>
-    <t xml:space="preserve">Emergency restoration of food security and productive capacity of affected family farmers of Tambo Grande District in the Province of Piura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-RR-FAO-019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporary learning and education spaces safe for the protection of displaced children in Piura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM170199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency temporary housing in districts of Piura</t>
+    <t xml:space="preserve">Pan-American Health Organization (World Health Organization)</t>
   </si>
   <si>
     <t xml:space="preserve">Improving the provision of safe water, sanitation and hygiene services for flash floods affected people displaced or living in shelters in the Provinces of Piura and Morropon</t>
@@ -311,63 +380,69 @@
     <t xml:space="preserve">SM170204</t>
   </si>
   <si>
+    <t xml:space="preserve">Improving the health and nutrition response to children, pregnant and lactating mothers affected displaced or living in shelters in the Provinces of Piura and Morropon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM170203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To provide life-saving protection services in response to  Gender Based Violence and access to sexual reproductive health care for adolescents and women affected by the emergency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Response to public health emergencies caused by flooding related to El Niño phenomenon</t>
   </si>
   <si>
     <t xml:space="preserve">17-RR-WHO-016</t>
   </si>
   <si>
-    <t xml:space="preserve">To provide life-saving protection services in response to  Gender Based Violence and access to sexual reproductive health care for adolescents and women affected by the emergency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improving the health and nutrition response to children, pregnant and lactating mothers affected displaced or living in shelters in the Provinces of Piura and Morropon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM170203</t>
-  </si>
-  <si>
     <t xml:space="preserve">WASH and health (USAID/OFDA)</t>
   </si>
   <si>
     <t xml:space="preserve">AID-OFDA-IO-17-00032</t>
   </si>
   <si>
-    <t xml:space="preserve">United Nations Population Fund</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emergency funds</t>
   </si>
   <si>
+    <t xml:space="preserve">Relief aid for the population affected by floods in Peru's coastal regions regarding WASH andhealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA-S09-321.50 PER 01/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contaminated mud removal to support the delivery of emergency/humanitarian response for the Government of Peru, UN Agencies and NGOs including the spontaneous return of families</t>
   </si>
   <si>
     <t xml:space="preserve">17-RR-UDP-004</t>
   </si>
   <si>
-    <t xml:space="preserve">Relief aid for the population affected by floods in Peru's coastal regions regarding WASH andhealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA-S09-321.50 PER 01/17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Humanitarian assistance for the population affected by floods regarding food security, WASH,health and protection</t>
   </si>
   <si>
     <t xml:space="preserve">AA-S09-321.50 PER 03/17</t>
   </si>
   <si>
+    <t xml:space="preserve">Caritas Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN Flash Appeal for Peru Floods  (P005126)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM170318</t>
+  </si>
+  <si>
     <t xml:space="preserve">UN Flash Appeal for Peru Floods  (P005127)</t>
   </si>
   <si>
     <t xml:space="preserve">P005127</t>
   </si>
   <si>
-    <t xml:space="preserve">UN Flash Appeal for Peru Floods  (P005126)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM170318</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peru/Floods-2017 Water, Sanitation and Hygiene through USAID Peru (USAID/OFDA)</t>
   </si>
   <si>
@@ -423,6 +498,12 @@
   </si>
   <si>
     <t xml:space="preserve">Emergency aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish Red Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accion Contra el Hambre - Spain</t>
   </si>
 </sst>
 </file>
@@ -848,22 +929,28 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -873,10 +960,10 @@
         <v>42832</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -923,22 +1010,28 @@
       <c r="AC2" t="n">
         <v>155903</v>
       </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -948,10 +1041,10 @@
         <v>42832</v>
       </c>
       <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
       </c>
       <c r="K3" t="n">
         <v>0.2</v>
@@ -1002,22 +1095,28 @@
       <c r="AC3" t="n">
         <v>155905</v>
       </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1027,10 +1126,10 @@
         <v>42832</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -1077,22 +1176,28 @@
       <c r="AC4" t="n">
         <v>155904</v>
       </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1102,10 +1207,10 @@
         <v>42832</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -1152,22 +1257,28 @@
       <c r="AC5" t="n">
         <v>155897</v>
       </c>
+      <c r="AD5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1177,10 +1288,10 @@
         <v>42832</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -1227,22 +1338,28 @@
       <c r="AC6" t="n">
         <v>155898</v>
       </c>
+      <c r="AD6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1252,10 +1369,10 @@
         <v>42832</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1302,22 +1419,28 @@
       <c r="AC7" t="n">
         <v>155899</v>
       </c>
+      <c r="AD7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1327,10 +1450,10 @@
         <v>42832</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1377,22 +1500,28 @@
       <c r="AC8" t="n">
         <v>155895</v>
       </c>
+      <c r="AD8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1402,10 +1531,10 @@
         <v>42832</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1452,22 +1581,28 @@
       <c r="AC9" t="n">
         <v>155896</v>
       </c>
+      <c r="AD9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1477,10 +1612,10 @@
         <v>42823</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
         <v>0.2625</v>
@@ -1531,54 +1666,60 @@
       <c r="AC10" t="n">
         <v>155719</v>
       </c>
+      <c r="AD10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
         <v>42818</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>42832</v>
+        <v>42892</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="L11" t="n">
-        <v>0.937</v>
+        <v>1.345</v>
       </c>
       <c r="M11" t="n">
-        <v>0.053362</v>
+        <v>0.133829</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.053362</v>
+        <v>0.133829</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.053362</v>
+        <v>0.133829</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1599,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.053362</v>
+        <v>0.133829</v>
       </c>
       <c r="Y11"/>
       <c r="Z11"/>
@@ -1608,56 +1749,62 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>155859</v>
+        <v>159739</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
         <v>42818</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>42892</v>
+        <v>42832</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K12" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.345</v>
+        <v>0.937</v>
       </c>
       <c r="M12" t="n">
-        <v>0.133829</v>
+        <v>0.053362</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.133829</v>
+        <v>0.053362</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.133829</v>
+        <v>0.053362</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1678,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.133829</v>
+        <v>0.053362</v>
       </c>
       <c r="Y12"/>
       <c r="Z12"/>
@@ -1687,24 +1834,30 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>159739</v>
+        <v>155859</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -1714,10 +1867,10 @@
         <v>42962</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -1764,22 +1917,28 @@
       <c r="AC13" t="n">
         <v>162716</v>
       </c>
+      <c r="AD13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -1789,10 +1948,10 @@
         <v>42961</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -1839,50 +1998,56 @@
       <c r="AC14" t="n">
         <v>162717</v>
       </c>
+      <c r="AD14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
         <v>42821</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>42832</v>
+        <v>42843</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1903,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y15"/>
       <c r="Z15"/>
@@ -1912,52 +2077,58 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>155894</v>
+        <v>156956</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
         <v>42821</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>42892</v>
+        <v>42832</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1978,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Y16"/>
       <c r="Z16"/>
@@ -1987,52 +2158,58 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>156955</v>
+        <v>155894</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
         <v>42821</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>42843</v>
+        <v>42892</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="N17"/>
       <c r="O17" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2053,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="Y17"/>
       <c r="Z17"/>
@@ -2062,24 +2239,30 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>156956</v>
+        <v>156955</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2089,10 +2272,10 @@
         <v>42828</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18" t="n">
         <v>0.1</v>
@@ -2143,19 +2326,25 @@
       <c r="AC18" t="n">
         <v>156036</v>
       </c>
+      <c r="AD18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
@@ -2165,28 +2354,28 @@
         <v>42822</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>42832</v>
+        <v>42843</v>
       </c>
       <c r="I19" t="s">
         <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N19"/>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2207,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y19"/>
       <c r="Z19"/>
@@ -2216,52 +2405,58 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>156207</v>
+        <v>156954</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
         <v>42822</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>42843</v>
+        <v>42832</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2282,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y20"/>
       <c r="Z20"/>
@@ -2291,24 +2486,30 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>156954</v>
+        <v>156207</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -2318,10 +2519,10 @@
         <v>43335</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K21" t="n">
         <v>0.8</v>
@@ -2372,22 +2573,28 @@
       <c r="AC21" t="n">
         <v>156105</v>
       </c>
+      <c r="AD21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -2397,10 +2604,10 @@
         <v>42866</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K22" t="n">
         <v>0.22</v>
@@ -2451,22 +2658,28 @@
       <c r="AC22" t="n">
         <v>158208</v>
       </c>
+      <c r="AD22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -2476,10 +2689,10 @@
         <v>43011</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K23" t="n">
         <v>11.019</v>
@@ -2530,22 +2743,28 @@
       <c r="AC23" t="n">
         <v>164381</v>
       </c>
+      <c r="AD23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -2555,10 +2774,10 @@
         <v>43038</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K24" t="n">
         <v>0.25</v>
@@ -2609,22 +2828,28 @@
       <c r="AC24" t="n">
         <v>156326</v>
       </c>
+      <c r="AD24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -2634,10 +2859,10 @@
         <v>42852</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K25" t="n">
         <v>2.5</v>
@@ -2688,22 +2913,28 @@
       <c r="AC25" t="n">
         <v>157518</v>
       </c>
+      <c r="AD25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -2713,10 +2944,10 @@
         <v>42852</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -2763,22 +2994,26 @@
       <c r="AC26" t="n">
         <v>157170</v>
       </c>
+      <c r="AD26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -2788,10 +3023,10 @@
         <v>42852</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -2838,22 +3073,26 @@
       <c r="AC27" t="n">
         <v>157171</v>
       </c>
+      <c r="AD27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -2863,10 +3102,10 @@
         <v>42850</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
@@ -2917,22 +3156,28 @@
       <c r="AC28" t="n">
         <v>157136</v>
       </c>
+      <c r="AD28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -2942,10 +3187,10 @@
         <v>42850</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K29" t="n">
         <v>3.6</v>
@@ -2996,44 +3241,50 @@
       <c r="AC29" t="n">
         <v>157365</v>
       </c>
+      <c r="AD29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>43060</v>
+        <v>42895</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30" t="n">
-        <v>0.370181</v>
+        <v>0.230416</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.370181</v>
+        <v>0.230416</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3042,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.370181</v>
+        <v>0.230416</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3060,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.370181</v>
+        <v>0.230416</v>
       </c>
       <c r="Y30"/>
       <c r="Z30"/>
@@ -3069,46 +3320,52 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>157309</v>
+        <v>157315</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>42857</v>
+        <v>42895</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>0.397633</v>
+        <v>0.186102</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.397633</v>
+        <v>0.186102</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3117,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.397633</v>
+        <v>0.186102</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3135,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.397633</v>
+        <v>0.186102</v>
       </c>
       <c r="Y31"/>
       <c r="Z31"/>
@@ -3144,46 +3401,52 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>157310</v>
+        <v>157316</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>43136</v>
+        <v>43060</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="n">
-        <v>0.288286</v>
+        <v>0.370181</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.288286</v>
+        <v>0.370181</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3192,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.288286</v>
+        <v>0.370181</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3210,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.288286</v>
+        <v>0.370181</v>
       </c>
       <c r="Y32"/>
       <c r="Z32"/>
@@ -3219,46 +3482,52 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>157311</v>
+        <v>157309</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>42895</v>
+        <v>42927</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="n">
-        <v>0.230416</v>
+        <v>0.77</v>
       </c>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>0.230416</v>
+        <v>0.77</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3267,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.230416</v>
+        <v>0.77</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3285,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.230416</v>
+        <v>0.77</v>
       </c>
       <c r="Y33"/>
       <c r="Z33"/>
@@ -3294,46 +3563,52 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>157315</v>
+        <v>161210</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>42895</v>
+        <v>43136</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="n">
-        <v>0.186102</v>
+        <v>0.288286</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="n">
-        <v>0.186102</v>
+        <v>0.288286</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3342,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.186102</v>
+        <v>0.288286</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3360,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.186102</v>
+        <v>0.288286</v>
       </c>
       <c r="Y34"/>
       <c r="Z34"/>
@@ -3369,46 +3644,52 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>157316</v>
+        <v>157311</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
         <v>42847</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>42927</v>
+        <v>42857</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>0.77</v>
+        <v>0.397633</v>
       </c>
       <c r="N35"/>
       <c r="O35" t="n">
-        <v>0.77</v>
+        <v>0.397633</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3417,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.77</v>
+        <v>0.397633</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3435,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.77</v>
+        <v>0.397633</v>
       </c>
       <c r="Y35"/>
       <c r="Z35"/>
@@ -3444,24 +3725,30 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>161210</v>
+        <v>157310</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -3471,10 +3758,10 @@
         <v>42895</v>
       </c>
       <c r="I36" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
@@ -3521,44 +3808,50 @@
       <c r="AC36" t="n">
         <v>157533</v>
       </c>
+      <c r="AD36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>42860</v>
+        <v>42895</v>
       </c>
       <c r="I37" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>0.127505</v>
+        <v>0.28315</v>
       </c>
       <c r="N37"/>
       <c r="O37" t="n">
-        <v>0.127505</v>
+        <v>0.28315</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -3567,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.127505</v>
+        <v>0.28315</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3585,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.127505</v>
+        <v>0.28315</v>
       </c>
       <c r="Y37"/>
       <c r="Z37"/>
@@ -3594,46 +3887,52 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>157539</v>
+        <v>157547</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>42860</v>
+        <v>42895</v>
       </c>
       <c r="I38" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="n">
-        <v>0.055784</v>
+        <v>0.258669</v>
       </c>
       <c r="N38"/>
       <c r="O38" t="n">
-        <v>0.055784</v>
+        <v>0.258669</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3642,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.055784</v>
+        <v>0.258669</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3660,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.055784</v>
+        <v>0.258669</v>
       </c>
       <c r="Y38"/>
       <c r="Z38"/>
@@ -3669,46 +3968,52 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>157540</v>
+        <v>157548</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>42860</v>
+        <v>42877</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="n">
-        <v>0.031876</v>
+        <v>0.199937</v>
       </c>
       <c r="N39"/>
       <c r="O39" t="n">
-        <v>0.031876</v>
+        <v>0.199937</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -3717,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.031876</v>
+        <v>0.199937</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3735,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.031876</v>
+        <v>0.199937</v>
       </c>
       <c r="Y39"/>
       <c r="Z39"/>
@@ -3744,46 +4049,52 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>157541</v>
+        <v>157544</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>42860</v>
+        <v>42877</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="n">
-        <v>0.183193</v>
+        <v>0.057674</v>
       </c>
       <c r="N40"/>
       <c r="O40" t="n">
-        <v>0.183193</v>
+        <v>0.057674</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -3792,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.183193</v>
+        <v>0.057674</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3810,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.183193</v>
+        <v>0.057674</v>
       </c>
       <c r="Y40"/>
       <c r="Z40"/>
@@ -3819,46 +4130,52 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>157542</v>
+        <v>157545</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>42877</v>
+        <v>43060</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>0.199937</v>
+        <v>0.126883</v>
       </c>
       <c r="N41"/>
       <c r="O41" t="n">
-        <v>0.199937</v>
+        <v>0.126883</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -3867,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.199937</v>
+        <v>0.126883</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3885,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.199937</v>
+        <v>0.126883</v>
       </c>
       <c r="Y41"/>
       <c r="Z41"/>
@@ -3894,46 +4211,52 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>157544</v>
+        <v>157546</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>42877</v>
+        <v>42860</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="n">
-        <v>0.057674</v>
+        <v>0.127505</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>0.057674</v>
+        <v>0.127505</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -3942,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.057674</v>
+        <v>0.127505</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3960,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.057674</v>
+        <v>0.127505</v>
       </c>
       <c r="Y42"/>
       <c r="Z42"/>
@@ -3969,46 +4292,52 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>157545</v>
+        <v>157539</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>43060</v>
+        <v>42860</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>0.126883</v>
+        <v>0.055784</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.126883</v>
+        <v>0.055784</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4017,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.126883</v>
+        <v>0.055784</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4035,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.126883</v>
+        <v>0.055784</v>
       </c>
       <c r="Y43"/>
       <c r="Z43"/>
@@ -4044,46 +4373,52 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>157546</v>
+        <v>157540</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>42895</v>
+        <v>42860</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="n">
-        <v>0.28315</v>
+        <v>0.031876</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>0.28315</v>
+        <v>0.031876</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4092,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.28315</v>
+        <v>0.031876</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4110,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.28315</v>
+        <v>0.031876</v>
       </c>
       <c r="Y44"/>
       <c r="Z44"/>
@@ -4119,46 +4454,52 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>157547</v>
+        <v>157541</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
         <v>42851</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>42895</v>
+        <v>42860</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="n">
-        <v>0.258669</v>
+        <v>0.183193</v>
       </c>
       <c r="N45"/>
       <c r="O45" t="n">
-        <v>0.258669</v>
+        <v>0.183193</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4167,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.258669</v>
+        <v>0.183193</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4185,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.258669</v>
+        <v>0.183193</v>
       </c>
       <c r="Y45"/>
       <c r="Z45"/>
@@ -4194,24 +4535,30 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>157548</v>
+        <v>157542</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -4221,10 +4568,10 @@
         <v>42892</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -4271,22 +4618,28 @@
       <c r="AC46" t="n">
         <v>157169</v>
       </c>
+      <c r="AD46" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -4296,10 +4649,10 @@
         <v>42877</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K47"/>
       <c r="L47"/>
@@ -4346,44 +4699,54 @@
       <c r="AC47" t="n">
         <v>158578</v>
       </c>
+      <c r="AD47" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
-        <v>42851</v>
+        <v>42858</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>43193</v>
+        <v>42877</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48"/>
-      <c r="L48"/>
+        <v>132</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.921</v>
+      </c>
       <c r="M48" t="n">
-        <v>0.125</v>
+        <v>0.2443</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.125</v>
+        <v>0.2443</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4395,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.125</v>
+        <v>0.2443</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4410,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.125</v>
+        <v>0.2443</v>
       </c>
       <c r="Y48"/>
       <c r="Z48"/>
@@ -4419,24 +4782,30 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>157531</v>
+        <v>158444</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -4446,19 +4815,19 @@
         <v>43193</v>
       </c>
       <c r="I49" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="J49" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="n">
-        <v>0.125016</v>
+        <v>0.125</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.125016</v>
+        <v>0.125</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4470,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0.125016</v>
+        <v>0.125</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4485,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0.125016</v>
+        <v>0.125</v>
       </c>
       <c r="Y49"/>
       <c r="Z49"/>
@@ -4494,50 +4863,52 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>157532</v>
+        <v>157531</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
-        <v>42858</v>
+        <v>42851</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>42877</v>
+        <v>43193</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="J50" t="s">
-        <v>111</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.921</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50"/>
       <c r="M50" t="n">
-        <v>0.2443</v>
+        <v>0.125016</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>0.2443</v>
+        <v>0.125016</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4549,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0.2443</v>
+        <v>0.125016</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4564,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0.2443</v>
+        <v>0.125016</v>
       </c>
       <c r="Y50"/>
       <c r="Z50"/>
@@ -4573,24 +4944,30 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>158444</v>
+        <v>157532</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -4600,10 +4977,10 @@
         <v>42877</v>
       </c>
       <c r="I51" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="K51" t="n">
         <v>0.3</v>
@@ -4654,48 +5031,54 @@
       <c r="AC51" t="n">
         <v>158445</v>
       </c>
+      <c r="AD51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
         <v>42860</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>43060</v>
+        <v>43126</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K52" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.362</v>
+        <v>1.348</v>
       </c>
       <c r="M52" t="n">
-        <v>0.110132</v>
+        <v>0.296736</v>
       </c>
       <c r="N52"/>
       <c r="O52" t="n">
-        <v>0.110132</v>
+        <v>0.296736</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -4707,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0.110132</v>
+        <v>0.296736</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -4722,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0.110132</v>
+        <v>0.296736</v>
       </c>
       <c r="Y52"/>
       <c r="Z52"/>
@@ -4731,50 +5114,56 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>159740</v>
+        <v>159741</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
         <v>42860</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>43126</v>
+        <v>43060</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="L53" t="n">
-        <v>1.348</v>
+        <v>1.362</v>
       </c>
       <c r="M53" t="n">
-        <v>0.296736</v>
+        <v>0.110132</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>0.296736</v>
+        <v>0.110132</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -4786,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0.296736</v>
+        <v>0.110132</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -4801,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0.296736</v>
+        <v>0.110132</v>
       </c>
       <c r="Y53"/>
       <c r="Z53"/>
@@ -4810,24 +5199,30 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>159741</v>
+        <v>159740</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -4837,10 +5232,10 @@
         <v>43063</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="J54" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="K54"/>
       <c r="L54"/>
@@ -4887,22 +5282,26 @@
       <c r="AC54" t="n">
         <v>160902</v>
       </c>
+      <c r="AD54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -4912,10 +5311,10 @@
         <v>43063</v>
       </c>
       <c r="I55" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="J55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K55"/>
       <c r="L55"/>
@@ -4962,22 +5361,26 @@
       <c r="AC55" t="n">
         <v>160903</v>
       </c>
+      <c r="AD55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -4987,10 +5390,10 @@
         <v>43097</v>
       </c>
       <c r="I56" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="J56" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="K56" t="n">
         <v>0.4</v>
@@ -5041,22 +5444,28 @@
       <c r="AC56" t="n">
         <v>160172</v>
       </c>
+      <c r="AD56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -5066,10 +5475,10 @@
         <v>43097</v>
       </c>
       <c r="I57" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="K57" t="n">
         <v>0.35</v>
@@ -5120,22 +5529,28 @@
       <c r="AC57" t="n">
         <v>160544</v>
       </c>
+      <c r="AD57" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -5145,10 +5560,10 @@
         <v>43063</v>
       </c>
       <c r="I58" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
@@ -5195,22 +5610,28 @@
       <c r="AC58" t="n">
         <v>166596</v>
       </c>
+      <c r="AD58" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -5220,10 +5641,10 @@
         <v>43063</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J59" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
@@ -5270,22 +5691,28 @@
       <c r="AC59" t="n">
         <v>166597</v>
       </c>
+      <c r="AD59" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -5295,10 +5722,10 @@
         <v>42984</v>
       </c>
       <c r="I60" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="J60" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K60" t="n">
         <v>0.3</v>
@@ -5349,22 +5776,28 @@
       <c r="AC60" t="n">
         <v>163425</v>
       </c>
+      <c r="AD60" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -5374,10 +5807,10 @@
         <v>43063</v>
       </c>
       <c r="I61" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="K61"/>
       <c r="L61"/>
@@ -5424,22 +5857,28 @@
       <c r="AC61" t="n">
         <v>166601</v>
       </c>
+      <c r="AD61" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -5449,10 +5888,10 @@
         <v>43063</v>
       </c>
       <c r="I62" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="J62" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="K62"/>
       <c r="L62"/>
@@ -5499,22 +5938,28 @@
       <c r="AC62" t="n">
         <v>164058</v>
       </c>
+      <c r="AD62" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -5524,10 +5969,10 @@
         <v>43117</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="J63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K63" t="n">
         <v>0.15</v>
@@ -5578,22 +6023,28 @@
       <c r="AC63" t="n">
         <v>169536</v>
       </c>
+      <c r="AD63" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -5603,10 +6054,10 @@
         <v>43117</v>
       </c>
       <c r="I64" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="J64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K64" t="n">
         <v>0.12</v>
@@ -5656,6 +6107,12 @@
       </c>
       <c r="AC64" t="n">
         <v>169551</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
